--- a/individual_results/avey/445.xlsx
+++ b/individual_results/avey/445.xlsx
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0.2</v>
@@ -588,13 +588,13 @@
         <v>0.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O2" t="n">
         <v>0.5</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0.2</v>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0.5</v>
@@ -667,7 +667,7 @@
         <v>0.5</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0.5</v>
@@ -697,9 +697,7 @@
           <t>f1-score</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.2857142857142858</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
         <v>0.2857142857142858</v>
       </c>
@@ -728,14 +726,12 @@
         <v>0.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2857142857142858</v>
+        <v>0.4</v>
       </c>
       <c r="O4" t="n">
         <v>0.5</v>
       </c>
-      <c r="P4" t="n">
-        <v>0.2857142857142858</v>
-      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
         <v>0.2857142857142858</v>
       </c>
@@ -764,9 +760,7 @@
           <t>f2-score</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.3846153846153846</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
         <v>0.3846153846153846</v>
       </c>
@@ -795,14 +789,12 @@
         <v>0.5</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="O5" t="n">
         <v>0.5</v>
       </c>
-      <c r="P5" t="n">
-        <v>0.3846153846153846</v>
-      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
         <v>0.3846153846153846</v>
       </c>
@@ -832,7 +824,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3196311965446524</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0.52129602861432</v>
@@ -874,7 +866,7 @@
         <v>0.52129602861432</v>
       </c>
       <c r="P6" t="n">
-        <v>0.41311732856428</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0.3196311965446524</v>
@@ -1020,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="b">
         <v>0</v>
@@ -1051,7 +1043,7 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -1093,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="b">
         <v>1</v>
@@ -1123,9 +1115,7 @@
           <t>position</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
         <v>2</v>
       </c>
@@ -1157,9 +1147,7 @@
       <c r="O10" t="n">
         <v>2</v>
       </c>
-      <c r="P10" t="n">
-        <v>3</v>
-      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
         <v>5</v>
       </c>
@@ -1223,7 +1211,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="O11" t="n">
         <v>1</v>
